--- a/app/config/tables/example_beneficiary_units_form/forms/example_beneficiary_units_form/example_beneficiary_units_form.xlsx
+++ b/app/config/tables/example_beneficiary_units_form/forms/example_beneficiary_units_form/example_beneficiary_units_form.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/app/config/tables/custom_beneficiary_entities/forms/custom_beneficiary_entities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DemoRedCross\redcross-app-designer\app\config\tables\example_beneficiary_units_form\forms\example_beneficiary_units_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="620" windowWidth="25600" windowHeight="16060" tabRatio="994" activeTab="5"/>
+    <workbookView xWindow="3204" yWindow="624" windowWidth="25596" windowHeight="16056" tabRatio="994" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>Either tent/caravan or address must be completed.</t>
-  </si>
-  <si>
-    <t>custom_beneficiary_entities</t>
   </si>
   <si>
     <t>Custom Beneficiary Entities</t>
@@ -377,11 +374,14 @@
   <si>
     <t>custom_members</t>
   </si>
+  <si>
+    <t>example_beneficiary_units_form</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -766,6 +766,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1099,23 +1102,23 @@
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.796875" style="3" customWidth="1"/>
     <col min="5" max="5" width="71.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="45.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="45.19921875" style="5" customWidth="1"/>
     <col min="7" max="7" width="34.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="50.1640625" customWidth="1"/>
+    <col min="9" max="9" width="30.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.19921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="50.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1168,7 +1171,7 @@
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:12" ht="409" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="409.6" x14ac:dyDescent="0.45">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" s="13" t="s">
@@ -1189,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1204,7 +1207,7 @@
       <c r="J4"/>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1217,7 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="2" t="s">
@@ -1236,7 +1239,7 @@
       </c>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="2" t="s">
@@ -1254,7 +1257,7 @@
       <c r="J7"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1265,13 +1268,13 @@
       <c r="J8"/>
       <c r="K8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -1292,7 +1295,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11"/>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -1311,7 +1314,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12"/>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -1330,13 +1333,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1351,7 +1354,7 @@
       <c r="J14"/>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15"/>
       <c r="C15" s="13" t="s">
         <v>22</v>
@@ -1367,7 +1370,7 @@
       <c r="J15"/>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" s="2" t="s">
@@ -1377,7 +1380,7 @@
         <v>73</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
         <v>73</v>
@@ -1385,7 +1388,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1397,7 +1400,7 @@
       <c r="J17"/>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1409,7 +1412,7 @@
       <c r="J18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1420,13 +1423,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21"/>
       <c r="F21" s="12"/>
       <c r="I21"/>
@@ -1443,18 +1446,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" style="18" customWidth="1"/>
     <col min="2" max="2" width="38.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
@@ -1465,16 +1468,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>38</v>
       </c>
@@ -1483,24 +1486,24 @@
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
@@ -1522,14 +1525,14 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="53.19921875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1621,14 +1624,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>47</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1730,12 +1733,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>51</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>54</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1796,23 +1799,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" customWidth="1"/>
+    <col min="3" max="3" width="22.796875" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.796875" customWidth="1"/>
+    <col min="6" max="6" width="39.296875" customWidth="1"/>
     <col min="7" max="7" width="43.5" customWidth="1"/>
     <col min="8" max="8" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>61</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>73</v>
       </c>
@@ -1846,25 +1849,25 @@
         <v>69</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>101</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>102</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1872,16 +1875,16 @@
         <v>69</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
         <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>100</v>
       </c>
       <c r="G3" t="s">
         <v>70</v>
@@ -1904,13 +1907,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" customWidth="1"/>
+    <col min="4" max="4" width="49.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1924,14 +1927,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>45</v>
       </c>
@@ -1954,13 +1957,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" customWidth="1"/>
+    <col min="1" max="1" width="32.796875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>86</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>87</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>88</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>89</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>90</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>91</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>84</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>92</v>
       </c>
